--- a/output/2302/Reconciliation_Ekofisk.xlsx
+++ b/output/2302/Reconciliation_Ekofisk.xlsx
@@ -26370,7 +26370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D335"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26411,7 +26411,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>X</t>
@@ -26429,7 +26433,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>X</t>
@@ -26447,7 +26455,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>X</t>
@@ -26465,7 +26477,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>X</t>
@@ -26483,7 +26499,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>X</t>
@@ -26501,7 +26521,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>X</t>
@@ -26519,7 +26543,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>X</t>
@@ -26537,7 +26565,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>X</t>
@@ -26569,7 +26601,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>X</t>
@@ -26601,7 +26637,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>X</t>
@@ -26619,7 +26659,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>X</t>
@@ -26637,7 +26681,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>X</t>
@@ -26697,7 +26745,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>X</t>
@@ -26715,7 +26767,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>X</t>
@@ -26775,7 +26831,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>X</t>
@@ -26793,7 +26853,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>X</t>
@@ -26877,35 +26941,51 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>215196</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>215978</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>215356</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>216-6577</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>215978</t>
+          <t>220330</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -26918,16 +26998,12 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>216-6577</t>
+          <t>220475</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -26935,7 +27011,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>X</t>
@@ -26945,24 +27025,28 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>217850</t>
+          <t>221-1555</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>217892</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>221345</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>X</t>
@@ -26973,1295 +27057,1599 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>217904</t>
+          <t>232-4887</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>217906</t>
+          <t>233-6659</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>217913</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>236-3919</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>217914</t>
+          <t>250-5683</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>217931</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>260-5426</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>217932</t>
+          <t>265-3806</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>217933</t>
+          <t>280-1843</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>217934</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>281-9068</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>217935</t>
+          <t>282-4647</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>217936</t>
+          <t>284-5352</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>217937</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>284-5378</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>217938</t>
+          <t>286-1508</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>217939</t>
+          <t>286-3082</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>217940</t>
+          <t>299-0869</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>217941</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>314-7196</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>217942</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>217943</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>325-7367</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>217944</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>328-8453</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>217945</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>217946</t>
+          <t>348-9986</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>217948</t>
+          <t>349-2170</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>217949</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>352-0301</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>217950</t>
+          <t>360-8494</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>217951</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>362-5506</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>217952</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>217953</t>
+          <t>369-4866</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>217954</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>384-5104</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>217955</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>217956</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>217957</t>
+          <t>400-7845</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>217958</t>
+          <t>429-9335</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>217959</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>431-2849</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>217960</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>437-3205</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>217961</t>
+          <t>441-5592</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>217962</t>
+          <t>446-8377</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>217963</t>
+          <t>446-8492</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>217964</t>
+          <t>457-2129</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>217965</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>470-9465</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>217966</t>
+          <t>473-5825</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>217967</t>
+          <t>5008-8707</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>217968</t>
+          <t>501-6175</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>217969</t>
+          <t>5010-9198</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>217970</t>
+          <t>501112-3014</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>217971</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
+          <t>5035-7995</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>217972</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>5040-1058</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>217973</t>
+          <t>5043-5726</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>217974</t>
+          <t>5051-6822</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>217975</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>5054-6845</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>217976</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>5070-3826</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>217977</t>
+          <t>5077-3530</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>217978</t>
+          <t>5080-7403</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>217979</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>5086-1962</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>217980</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>5086-6557</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>217981</t>
+          <t>5095-1771</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>217982</t>
+          <t>511-6272</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>217983</t>
+          <t>5132-9464</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>217984</t>
+          <t>514-7806</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>217985</t>
+          <t>5141-8341</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>217986</t>
+          <t>5155-4020</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>217987</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
+          <t>5160-9543</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>217988</t>
+          <t>5161-2893</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>217989</t>
+          <t>5162-1183</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>217990</t>
+          <t>5163-5795</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>217991</t>
+          <t>5169-1319</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>217992</t>
+          <t>5188-5994</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>217993</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>5205-1588</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>217994</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>5206-0456</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>217995</t>
+          <t>523-4745</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>217996</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
+          <t>5237-9310</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>217997</t>
+          <t>5238-6661</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>217998</t>
+          <t>5238-9954</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>217999</t>
+          <t>5247-2032</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>218000</t>
+          <t>5247-6777</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>218001</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr"/>
+          <t>527-1960</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>218002</t>
+          <t>5287-3312</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>218003</t>
+          <t>5328-4428-1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>218004</t>
+          <t>5329-3460</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>218005</t>
+          <t>5338-8757</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>218006</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
+          <t>5341-9354</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>218007</t>
+          <t>5374-5105</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>218008</t>
+          <t>5398-3052</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>218009</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t>541-1731</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>218010</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
+          <t>5412-6941</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>218011</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
+          <t>5415-8779</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>218012</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t>5432-8364</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>218107</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr"/>
+          <t>5445-2230</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>218108</t>
+          <t>5451-0656</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>218109</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>5469-2413</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>218110</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr"/>
+          <t>5475-9816</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>218111</t>
+          <t>5484-9559</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>218285</t>
+          <t>5493-6125</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>218287</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>5493-7016</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>220330</t>
+          <t>5500-2117</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -28274,12 +28662,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>220475</t>
+          <t>551-0367</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -28301,7 +28693,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>221-1555</t>
+          <t>5518-1374</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -28315,25 +28707,21 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>221345</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>5522-2798</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>232-4887</t>
+          <t>5525-9345</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
@@ -28347,7 +28735,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>233-6659</t>
+          <t>5529-0977</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -28361,14 +28749,10 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>236-3919</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5542-8130</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
@@ -28379,7 +28763,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>250-5683</t>
+          <t>556490-6716</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -28393,14 +28777,10 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>260-5426</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5569548950</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
@@ -28411,7 +28791,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>265-3806</t>
+          <t>5617-0483</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -28425,7 +28805,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>280-1843</t>
+          <t>5622-2714</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -28439,7 +28819,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>281-9068</t>
+          <t>5632-1169</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -28447,7 +28827,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>X</t>
@@ -28457,7 +28841,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>282-4647</t>
+          <t>5636-9838</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -28471,11 +28855,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>284-5352</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
+          <t>5645-5785</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>X</t>
@@ -28485,14 +28877,10 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>284-5378</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5648-2664</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
@@ -28503,11 +28891,19 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>286-1508</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
+          <t>5665-2324</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>X</t>
@@ -28517,7 +28913,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>286-3082</t>
+          <t>5675-3346</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -28531,7 +28927,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>299-0869</t>
+          <t>569-5259</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -28545,14 +28941,10 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>314-7196</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5707-9055</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
@@ -28563,14 +28955,10 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5711-5487</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
@@ -28581,14 +28969,10 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>325-7367</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>572-7748</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
@@ -28599,7 +28983,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>328-8453</t>
+          <t>5747-9172</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -28607,7 +28991,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>X</t>
@@ -28617,7 +29005,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>5750-3260</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -28625,7 +29013,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>X</t>
@@ -28635,11 +29027,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>348-9986</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
+          <t>5751-8466</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>X</t>
@@ -28649,11 +29049,19 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>349-2170</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
+          <t>5755-3802</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>X</t>
@@ -28663,14 +29071,10 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>352-0301</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>576-9021</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
@@ -28681,7 +29085,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>360-8494</t>
+          <t>5762-5675</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -28695,7 +29099,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>362-5506</t>
+          <t>5771-2770</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -28703,7 +29107,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>X</t>
@@ -28713,14 +29121,10 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>578-0275</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
@@ -28731,7 +29135,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>369-4866</t>
+          <t>5806-4411</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -28745,7 +29149,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>384-5104</t>
+          <t>5828-6345</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -28753,7 +29157,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>X</t>
@@ -28763,14 +29171,10 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5839-4040</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
@@ -28781,14 +29185,10 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5851-3797</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
@@ -28799,7 +29199,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>400-7845</t>
+          <t>5872-4170</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -28813,7 +29213,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>429-9335</t>
+          <t>5888-3406</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -28827,14 +29227,10 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>431-2849</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>590-3927</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
@@ -28845,14 +29241,10 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>437-3205</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5911-6871</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
@@ -28863,11 +29255,19 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>441-5592</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
+          <t>5916-3113</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>X</t>
@@ -28877,7 +29277,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>446-8377</t>
+          <t>5921-4759</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -28891,11 +29291,19 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>446-8492</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
+          <t>5927-8374</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>X</t>
@@ -28905,11 +29313,19 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>457-2129</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
+          <t>5933-2668</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>X</t>
@@ -28919,7 +29335,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>470-9465</t>
+          <t>5944-5734</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -28927,7 +29343,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>X</t>
@@ -28937,7 +29357,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>473-5825</t>
+          <t>5951-3044</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -28951,7 +29371,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>5008-8707</t>
+          <t>5957-9052</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -28965,7 +29385,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>501-6175</t>
+          <t>5975-3673</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -28979,11 +29399,19 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5010-9198</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
+          <t>5976-4233</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>X</t>
@@ -28993,7 +29421,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>501112-3014</t>
+          <t>5986-1039</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -29007,14 +29435,10 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>5035-7995</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5987-3968</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
@@ -29025,14 +29449,10 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>5040-1058</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5990-3443</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
@@ -29043,7 +29463,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>5043-5726</t>
+          <t>5991-1321</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -29057,11 +29477,19 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>5051-6822</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
+          <t>600-6514</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>X</t>
@@ -29071,14 +29499,10 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>5054-6845</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>603-3922</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
@@ -29089,7 +29513,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>5070-3826</t>
+          <t>608-1327</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -29097,7 +29521,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>X</t>
@@ -29107,11 +29535,19 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>5077-3530</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
+          <t>615-5725</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>X</t>
@@ -29121,7 +29557,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>5080-7403</t>
+          <t>620-5280</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -29135,7 +29571,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>5086-1962</t>
+          <t>624-2028</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -29143,7 +29579,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>X</t>
@@ -29153,7 +29593,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>5086-6557</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -29161,7 +29601,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>X</t>
@@ -29171,7 +29615,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>5095-1771</t>
+          <t>645-8558</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -29185,7 +29629,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>511-6272</t>
+          <t>649-4470</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -29199,7 +29643,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>5132-9464</t>
+          <t>661-1073</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -29213,7 +29657,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>514-7806</t>
+          <t>664-9396</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -29227,7 +29671,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>5141-8341</t>
+          <t>666-9626</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -29241,11 +29685,19 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>5155-4020</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>X</t>
@@ -29255,14 +29707,10 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>5160-9543</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>681-3794</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
@@ -29273,7 +29721,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>5161-2893</t>
+          <t>685-9847</t>
         </is>
       </c>
       <c r="B193" t="inlineStr"/>
@@ -29287,11 +29735,19 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>5162-1183</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
+          <t>698-4678</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>X</t>
@@ -29301,7 +29757,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>5163-5795</t>
+          <t>699-9858</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -29315,11 +29771,19 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>5169-1319</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>X</t>
@@ -29329,7 +29793,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>5188-5994</t>
+          <t>700-1761</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -29343,14 +29807,10 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>5205-1588</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>704-5537</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
@@ -29361,7 +29821,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>5206-0456</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -29369,7 +29829,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>X</t>
@@ -29379,11 +29843,19 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>523-4745</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>X</t>
@@ -29393,14 +29865,10 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>5237-9310</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>724-5707</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
@@ -29411,11 +29879,19 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>5238-6661</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>X</t>
@@ -29425,11 +29901,19 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>5238-9954</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
+          <t>731-2861</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>X</t>
@@ -29439,7 +29923,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>5247-2032</t>
+          <t>733-1838</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -29453,7 +29937,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>5247-6777</t>
+          <t>734-6232</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -29467,14 +29951,10 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>527-1960</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>734-8618</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
@@ -29485,11 +29965,19 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>5287-3312</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
+          <t>735-2297</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>X</t>
@@ -29499,11 +29987,19 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>5328-4428-1</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
+          <t>747-0842</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>X</t>
@@ -29513,7 +30009,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>5329-3460</t>
+          <t>750-6454</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -29527,7 +30023,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>5338-8757</t>
+          <t>757-1227</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -29541,7 +30037,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>5341-9354</t>
+          <t>769-8079</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -29549,7 +30045,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
           <t>X</t>
@@ -29559,7 +30059,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>5374-5105</t>
+          <t>796-1097</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -29573,7 +30073,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>5398-3052</t>
+          <t>797-2466</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -29587,7 +30087,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>541-1731</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -29595,7 +30095,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>X</t>
@@ -29605,14 +30109,10 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5412-6941</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>801-4896</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
@@ -29623,14 +30123,10 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>5415-8779</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>811-4092</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
@@ -29641,14 +30137,10 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>5432-8364</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>811-7442</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
@@ -29659,7 +30151,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>5445-2230</t>
+          <t>820-9256</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -29667,7 +30159,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>X</t>
@@ -29677,7 +30173,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>5451-0656</t>
+          <t>824-3586</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -29691,7 +30187,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>5469-2413</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -29699,7 +30195,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr">
         <is>
           <t>X</t>
@@ -29709,14 +30209,10 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>5475-9816</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>831-2332</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
@@ -29727,7 +30223,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>5484-9559</t>
+          <t>834-4384</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -29741,7 +30237,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>5493-6125</t>
+          <t>842-3972</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -29755,7 +30251,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>5493-7016</t>
+          <t>847-6269</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -29763,7 +30259,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>X</t>
@@ -29773,7 +30273,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>5500-2117</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -29781,7 +30281,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>X</t>
@@ -29791,14 +30295,10 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>551-0367</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>853-1121</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
@@ -29809,11 +30309,19 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>5518-1374</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
+          <t>859-5753</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>X</t>
@@ -29823,11 +30331,19 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>5522-2798</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
+          <t>865-6928</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>X</t>
@@ -29837,7 +30353,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>5525-9345</t>
+          <t>867-4046</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -29851,7 +30367,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>5529-0977</t>
+          <t>886-6691</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -29865,7 +30381,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>5542-8130</t>
+          <t>890-4906</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -29879,7 +30395,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>556490-6716</t>
+          <t>896301-9</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -29893,11 +30409,19 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>5569548950</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
+          <t>939-5385</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>X</t>
@@ -29907,7 +30431,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>5617-0483</t>
+          <t>939-8884</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -29921,7 +30445,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>5622-2714</t>
+          <t>945-1170</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -29935,7 +30459,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>5632-1169</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -29943,7 +30467,11 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>X</t>
@@ -29953,11 +30481,19 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>5636-9838</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
+          <t>968-3186</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>X</t>
@@ -29967,14 +30503,10 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>5645-5785</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
@@ -29985,1504 +30517,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>5648-2664</t>
+          <t>991-3500</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>5665-2324</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>5675-3346</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>569-5259</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>5707-9055</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>5711-5487</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>572-7748</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>5747-9172</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>5750-3260</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>5751-8466</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>5755-3802</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>576-9021</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>5762-5675</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>5771-2770</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>578-0275</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>5806-4411</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>5828-6345</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>5839-4040</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>5851-3797</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>5872-4170</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr"/>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>5888-3406</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>590-3927</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr"/>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>5911-6871</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr"/>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>5916-3113</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>5921-4759</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr"/>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>5927-8374</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>5933-2668</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>5944-5734</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>5951-3044</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr"/>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>5957-9052</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr"/>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>5975-3673</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr"/>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>5976-4233</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>5986-1039</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>5987-3968</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>5990-3443</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>5991-1321</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr"/>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>600-6514</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>603-3922</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr"/>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>608-1327</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>615-5725</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>620-5280</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr"/>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>624-2028</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>645-8558</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr"/>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>649-4470</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr"/>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>661-1073</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr"/>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>664-9396</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr"/>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>666-9626</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr"/>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>681-3794</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr"/>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>685-9847</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr"/>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>698-4678</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>699-9858</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr"/>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>700-1761</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>704-5537</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr"/>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>724-5707</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr"/>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>731-2861</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>733-1838</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr"/>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>734-6232</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr"/>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>734-8618</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr"/>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>735-2297</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>747-0842</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>750-6454</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr"/>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>757-1227</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr"/>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>769-8079</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>796-1097</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr"/>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>797-2466</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr"/>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>801-4896</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr"/>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>811-4092</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr"/>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>811-7442</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr"/>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>820-9256</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>824-3586</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr"/>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>831-2332</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr"/>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>834-4384</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr"/>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>842-3972</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr"/>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>847-6269</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>853-1121</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr"/>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>859-5753</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>865-6928</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>867-4046</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr"/>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>886-6691</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr"/>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>890-4906</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr"/>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>896301-9</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr"/>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>939-5385</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>939-8884</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr"/>
-      <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>945-1170</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr"/>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>968-3186</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr"/>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>991-3500</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr"/>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
         <is>
           <t>X</t>
         </is>

--- a/output/2302/Reconciliation_Ekofisk.xlsx
+++ b/output/2302/Reconciliation_Ekofisk.xlsx
@@ -26404,7 +26404,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -26426,7 +26426,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>0011</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -26448,7 +26448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>0015</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -26470,7 +26470,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>0032</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -26492,7 +26492,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0033</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -26514,7 +26514,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0039</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -26536,7 +26536,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>0063</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -26558,7 +26558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>0068</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -26580,11 +26580,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>0070</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>X</t>
@@ -26594,7 +26602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>0071</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -26616,11 +26624,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+          <t>0072</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>X</t>
@@ -26630,7 +26646,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>0073</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -26652,7 +26668,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0080</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -26674,7 +26690,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>0083</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -26696,11 +26712,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>127-4737</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+          <t>0085</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>X</t>
@@ -26710,11 +26734,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>130-8311</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>0096</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>X</t>
@@ -26724,7 +26756,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>139-7736</t>
+          <t>0098</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -26738,7 +26770,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0104</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -26760,7 +26792,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>0105</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -26782,11 +26814,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>166-0471</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>0107</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>X</t>
@@ -26796,11 +26836,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>166-2899</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+          <t>0109</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>X</t>
@@ -26810,11 +26858,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>168-7250</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+          <t>0110</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>X</t>
@@ -26824,7 +26880,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>170-2992</t>
+          <t>0115</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -26846,7 +26902,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>182-7179</t>
+          <t>0117</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -26868,7 +26924,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>202-2416</t>
+          <t>0118</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -26882,7 +26938,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>202583</t>
+          <t>0119</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -26890,31 +26946,47 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>202593</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>0120</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>204-0954</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+          <t>0121</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>X</t>
@@ -26924,7 +26996,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>209933</t>
+          <t>0123</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -26937,12 +27009,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>215978</t>
+          <t>0125</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -26964,7 +27040,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>216-6577</t>
+          <t>0156</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -26986,37 +27062,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>220330</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>127-4737</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>220475</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>130-8311</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>X</t>
@@ -27026,7 +27090,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>221-1555</t>
+          <t>139-7736</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -27040,25 +27104,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>221345</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>166-0471</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>232-4887</t>
+          <t>166-2899</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -27072,7 +27132,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>233-6659</t>
+          <t>168-7250</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -27086,7 +27146,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>236-3919</t>
+          <t>170-2992</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -27108,11 +27168,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>250-5683</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
+          <t>182-7179</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>X</t>
@@ -27122,19 +27190,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>260-5426</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>202-2416</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t>X</t>
@@ -27144,47 +27204,39 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>265-3806</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>202583</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>280-1843</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>202593</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>281-9068</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>204-0954</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>X</t>
@@ -27194,25 +27246,37 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>282-4647</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>209933</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>284-5352</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>215978</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>X</t>
@@ -27222,7 +27286,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>284-5378</t>
+          <t>216-6577</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -27244,25 +27308,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>286-1508</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>220330</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>286-3082</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>220475</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>X</t>
@@ -27272,7 +27348,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>299-0869</t>
+          <t>221-1555</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -27286,7 +27362,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>314-7196</t>
+          <t>221345</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -27299,28 +27375,16 @@
           <t>X</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>232-4887</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
           <t>X</t>
@@ -27330,19 +27394,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>325-7367</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>233-6659</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
           <t>X</t>
@@ -27352,7 +27408,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>328-8453</t>
+          <t>236-3919</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -27374,19 +27430,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>250-5683</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
           <t>X</t>
@@ -27396,11 +27444,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>348-9986</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+          <t>260-5426</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>X</t>
@@ -27410,7 +27466,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>349-2170</t>
+          <t>265-3806</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -27424,19 +27480,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>352-0301</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>280-1843</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
           <t>X</t>
@@ -27446,11 +27494,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>360-8494</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+          <t>281-9068</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>X</t>
@@ -27460,19 +27516,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>362-5506</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>282-4647</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>X</t>
@@ -27482,19 +27530,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3680</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>284-5352</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>X</t>
@@ -27504,11 +27544,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>369-4866</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+          <t>284-5378</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>X</t>
@@ -27518,19 +27566,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>384-5104</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>286-1508</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>X</t>
@@ -27540,19 +27580,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>286-3082</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
           <t>X</t>
@@ -27562,19 +27594,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>299-0869</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>X</t>
@@ -27584,11 +27608,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>400-7845</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+          <t>314-7196</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>X</t>
@@ -27598,11 +27630,19 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>429-9335</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+          <t>325-7367</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>X</t>
@@ -27612,7 +27652,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>431-2849</t>
+          <t>328-8453</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -27634,19 +27674,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>437-3205</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>348-9986</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>X</t>
@@ -27656,7 +27688,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>441-5592</t>
+          <t>349-2170</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -27670,11 +27702,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>446-8377</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+          <t>352-0301</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>X</t>
@@ -27684,7 +27724,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>446-8492</t>
+          <t>360-8494</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -27698,11 +27738,19 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>457-2129</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+          <t>362-5506</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>X</t>
@@ -27712,7 +27760,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>470-9465</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -27734,7 +27782,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>473-5825</t>
+          <t>369-4866</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -27748,11 +27796,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5008-8707</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+          <t>384-5104</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>X</t>
@@ -27762,7 +27818,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>501-6175</t>
+          <t>400-7845</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -27776,7 +27832,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5010-9198</t>
+          <t>429-9335</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -27790,11 +27846,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>501112-3014</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+          <t>431-2849</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>X</t>
@@ -27804,7 +27868,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5035-7995</t>
+          <t>437-3205</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -27826,19 +27890,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5040-1058</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>441-5592</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
           <t>X</t>
@@ -27848,7 +27904,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5043-5726</t>
+          <t>446-8377</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -27862,7 +27918,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5051-6822</t>
+          <t>446-8492</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -27876,19 +27932,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5054-6845</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>457-2129</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>X</t>
@@ -27898,7 +27946,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>5070-3826</t>
+          <t>470-9465</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -27920,7 +27968,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5077-3530</t>
+          <t>473-5825</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -27934,7 +27982,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5080-7403</t>
+          <t>5008-8707</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -27948,19 +27996,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5086-1962</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>501-6175</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>X</t>
@@ -27970,19 +28010,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5086-6557</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5010-9198</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>X</t>
@@ -27992,7 +28024,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>5095-1771</t>
+          <t>501112-3014</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -28006,11 +28038,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>511-6272</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+          <t>5035-7995</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>X</t>
@@ -28020,11 +28060,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>5132-9464</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+          <t>5040-1058</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>X</t>
@@ -28034,7 +28082,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>514-7806</t>
+          <t>5043-5726</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
@@ -28048,7 +28096,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>5141-8341</t>
+          <t>5051-6822</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -28062,11 +28110,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5155-4020</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+          <t>5054-6845</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>X</t>
@@ -28076,7 +28132,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5160-9543</t>
+          <t>5070-3826</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -28098,7 +28154,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>5161-2893</t>
+          <t>5077-3530</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -28112,7 +28168,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5162-1183</t>
+          <t>5080-7403</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -28126,11 +28182,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5163-5795</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+          <t>5086-1962</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>X</t>
@@ -28140,11 +28204,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5169-1319</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+          <t>5086-6557</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>X</t>
@@ -28154,7 +28226,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>5188-5994</t>
+          <t>5095-1771</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -28168,19 +28240,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>5205-1588</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>511-6272</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
           <t>X</t>
@@ -28190,19 +28254,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>5206-0456</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5132-9464</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>X</t>
@@ -28212,7 +28268,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>523-4745</t>
+          <t>514-7806</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -28226,19 +28282,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>5237-9310</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5141-8341</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>X</t>
@@ -28248,7 +28296,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5238-6661</t>
+          <t>5155-4020</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -28262,11 +28310,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>5238-9954</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+          <t>5160-9543</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>X</t>
@@ -28276,7 +28332,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>5247-2032</t>
+          <t>5161-2893</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
@@ -28290,7 +28346,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5247-6777</t>
+          <t>5162-1183</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -28304,19 +28360,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>527-1960</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5163-5795</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>X</t>
@@ -28326,7 +28374,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5287-3312</t>
+          <t>5169-1319</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
@@ -28340,7 +28388,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>5328-4428-1</t>
+          <t>5188-5994</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
@@ -28354,11 +28402,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>5329-3460</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+          <t>5205-1588</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>X</t>
@@ -28368,11 +28424,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5338-8757</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+          <t>5206-0456</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>X</t>
@@ -28382,19 +28446,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>5341-9354</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>523-4745</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>X</t>
@@ -28404,11 +28460,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>5374-5105</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+          <t>5237-9310</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>X</t>
@@ -28418,7 +28482,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>5398-3052</t>
+          <t>5238-6661</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -28432,19 +28496,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>541-1731</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5238-9954</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>X</t>
@@ -28454,19 +28510,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>5412-6941</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5247-2032</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>X</t>
@@ -28476,19 +28524,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>5415-8779</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5247-6777</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>X</t>
@@ -28498,7 +28538,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>5432-8364</t>
+          <t>527-1960</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -28520,19 +28560,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>5445-2230</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5287-3312</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
           <t>X</t>
@@ -28542,7 +28574,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>5451-0656</t>
+          <t>5328-4428-1</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
@@ -28556,19 +28588,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>5469-2413</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5329-3460</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
           <t>X</t>
@@ -28578,19 +28602,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>5475-9816</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5338-8757</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
           <t>X</t>
@@ -28600,11 +28616,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5484-9559</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+          <t>5341-9354</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>X</t>
@@ -28614,7 +28638,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5493-6125</t>
+          <t>5374-5105</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -28628,19 +28652,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>5493-7016</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5398-3052</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
           <t>X</t>
@@ -28650,7 +28666,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5500-2117</t>
+          <t>541-1731</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -28672,7 +28688,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>551-0367</t>
+          <t>5412-6941</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -28694,11 +28710,19 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>5518-1374</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
+          <t>5415-8779</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>X</t>
@@ -28708,11 +28732,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>5522-2798</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
+          <t>5432-8364</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>X</t>
@@ -28722,11 +28754,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>5525-9345</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
+          <t>5445-2230</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>X</t>
@@ -28736,7 +28776,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5529-0977</t>
+          <t>5451-0656</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -28750,11 +28790,19 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>5542-8130</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
+          <t>5469-2413</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>X</t>
@@ -28764,11 +28812,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>556490-6716</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
+          <t>5475-9816</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>X</t>
@@ -28778,7 +28834,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5569548950</t>
+          <t>5484-9559</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -28792,7 +28848,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>5617-0483</t>
+          <t>5493-6125</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -28806,11 +28862,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>5622-2714</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
+          <t>5493-7016</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>X</t>
@@ -28820,7 +28884,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>5632-1169</t>
+          <t>5500-2117</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -28842,11 +28906,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>5636-9838</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
+          <t>551-0367</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>X</t>
@@ -28856,19 +28928,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>5645-5785</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5518-1374</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
           <t>X</t>
@@ -28878,7 +28942,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>5648-2664</t>
+          <t>5522-2798</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -28892,19 +28956,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>5665-2324</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5525-9345</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
           <t>X</t>
@@ -28914,7 +28970,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>5675-3346</t>
+          <t>5529-0977</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
@@ -28928,7 +28984,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>569-5259</t>
+          <t>5542-8130</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
@@ -28942,7 +28998,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5707-9055</t>
+          <t>556490-6716</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
@@ -28956,7 +29012,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>5711-5487</t>
+          <t>5569548950</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -28970,7 +29026,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>572-7748</t>
+          <t>5617-0483</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -28984,19 +29040,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>5747-9172</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5622-2714</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
           <t>X</t>
@@ -29006,7 +29054,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5750-3260</t>
+          <t>5632-1169</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -29028,19 +29076,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>5751-8466</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5636-9838</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
           <t>X</t>
@@ -29050,7 +29090,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>5755-3802</t>
+          <t>5645-5785</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -29072,7 +29112,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>576-9021</t>
+          <t>5648-2664</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -29086,11 +29126,19 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>5762-5675</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
+          <t>5665-2324</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>X</t>
@@ -29100,19 +29148,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>5771-2770</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5675-3346</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
           <t>X</t>
@@ -29122,7 +29162,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>578-0275</t>
+          <t>569-5259</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
@@ -29136,7 +29176,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>5806-4411</t>
+          <t>5707-9055</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -29150,19 +29190,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>5828-6345</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5711-5487</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
           <t>X</t>
@@ -29172,7 +29204,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>5839-4040</t>
+          <t>572-7748</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -29186,11 +29218,19 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>5851-3797</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
+          <t>5747-9172</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>X</t>
@@ -29200,11 +29240,19 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>5872-4170</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
+          <t>5750-3260</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>X</t>
@@ -29214,11 +29262,19 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5888-3406</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
+          <t>5751-8466</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>X</t>
@@ -29228,11 +29284,19 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>590-3927</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
+          <t>5755-3802</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>X</t>
@@ -29242,7 +29306,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>5911-6871</t>
+          <t>576-9021</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
@@ -29256,19 +29320,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>5916-3113</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5762-5675</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
           <t>X</t>
@@ -29278,11 +29334,19 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>5921-4759</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
+          <t>5771-2770</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>X</t>
@@ -29292,19 +29356,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>5927-8374</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>578-0275</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
           <t>X</t>
@@ -29314,19 +29370,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>5933-2668</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5806-4411</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
           <t>X</t>
@@ -29336,7 +29384,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>5944-5734</t>
+          <t>5828-6345</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -29358,7 +29406,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>5951-3044</t>
+          <t>5839-4040</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -29372,7 +29420,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>5957-9052</t>
+          <t>5851-3797</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -29386,7 +29434,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5975-3673</t>
+          <t>5872-4170</t>
         </is>
       </c>
       <c r="B173" t="inlineStr"/>
@@ -29400,19 +29448,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5976-4233</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5888-3406</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
           <t>X</t>
@@ -29422,7 +29462,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>5986-1039</t>
+          <t>590-3927</t>
         </is>
       </c>
       <c r="B175" t="inlineStr"/>
@@ -29436,7 +29476,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>5987-3968</t>
+          <t>5911-6871</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -29450,11 +29490,19 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>5990-3443</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
+          <t>5916-3113</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>X</t>
@@ -29464,7 +29512,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>5991-1321</t>
+          <t>5921-4759</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -29478,7 +29526,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>600-6514</t>
+          <t>5927-8374</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -29500,11 +29548,19 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>603-3922</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
+          <t>5933-2668</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>X</t>
@@ -29514,7 +29570,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>608-1327</t>
+          <t>5944-5734</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -29536,19 +29592,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>615-5725</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5951-3044</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
           <t>X</t>
@@ -29558,7 +29606,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>620-5280</t>
+          <t>5957-9052</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -29572,19 +29620,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>624-2028</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5975-3673</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
           <t>X</t>
@@ -29594,7 +29634,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>5976-4233</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -29616,7 +29656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>645-8558</t>
+          <t>5986-1039</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -29630,7 +29670,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>649-4470</t>
+          <t>5987-3968</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -29644,7 +29684,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>661-1073</t>
+          <t>5990-3443</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -29658,7 +29698,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>664-9396</t>
+          <t>5991-1321</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -29672,11 +29712,19 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>666-9626</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+          <t>600-6514</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>X</t>
@@ -29686,19 +29734,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>603-3922</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
           <t>X</t>
@@ -29708,11 +29748,19 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>681-3794</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
+          <t>608-1327</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>X</t>
@@ -29722,11 +29770,19 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>685-9847</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
+          <t>615-5725</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>X</t>
@@ -29736,19 +29792,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>698-4678</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>620-5280</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
           <t>X</t>
@@ -29758,11 +29806,19 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>699-9858</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
+          <t>624-2028</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>X</t>
@@ -29772,19 +29828,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>645-8558</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
           <t>X</t>
@@ -29794,7 +29842,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>700-1761</t>
+          <t>649-4470</t>
         </is>
       </c>
       <c r="B197" t="inlineStr"/>
@@ -29808,7 +29856,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>704-5537</t>
+          <t>661-1073</t>
         </is>
       </c>
       <c r="B198" t="inlineStr"/>
@@ -29822,19 +29870,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>664-9396</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>X</t>
@@ -29844,19 +29884,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>666-9626</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
           <t>X</t>
@@ -29866,7 +29898,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>724-5707</t>
+          <t>681-3794</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -29880,19 +29912,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>685-9847</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
           <t>X</t>
@@ -29902,7 +29926,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>731-2861</t>
+          <t>698-4678</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -29924,7 +29948,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>733-1838</t>
+          <t>699-9858</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -29938,7 +29962,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>734-6232</t>
+          <t>700-1761</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -29952,7 +29976,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>734-8618</t>
+          <t>704-5537</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -29966,19 +29990,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>735-2297</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>724-5707</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
           <t>X</t>
@@ -29988,7 +30004,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>747-0842</t>
+          <t>731-2861</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -30010,7 +30026,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>750-6454</t>
+          <t>733-1838</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -30024,7 +30040,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>757-1227</t>
+          <t>734-6232</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -30038,19 +30054,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>769-8079</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>734-8618</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
           <t>X</t>
@@ -30060,11 +30068,19 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>796-1097</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
+          <t>735-2297</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>X</t>
@@ -30074,11 +30090,19 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>797-2466</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
+          <t>747-0842</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>X</t>
@@ -30088,19 +30112,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>750-6454</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
           <t>X</t>
@@ -30110,7 +30126,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>801-4896</t>
+          <t>757-1227</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -30124,11 +30140,19 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>811-4092</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
+          <t>769-8079</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>X</t>
@@ -30138,7 +30162,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>811-7442</t>
+          <t>796-1097</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -30152,19 +30176,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>820-9256</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>797-2466</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
           <t>X</t>
@@ -30174,7 +30190,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>824-3586</t>
+          <t>801-4896</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -30188,19 +30204,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>811-4092</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
           <t>X</t>
@@ -30210,7 +30218,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>831-2332</t>
+          <t>811-7442</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -30224,11 +30232,19 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>834-4384</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
+          <t>820-9256</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D222" t="inlineStr">
         <is>
           <t>X</t>
@@ -30238,7 +30254,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>842-3972</t>
+          <t>824-3586</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -30252,19 +30268,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>847-6269</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>831-2332</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
           <t>X</t>
@@ -30274,19 +30282,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>834-4384</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
           <t>X</t>
@@ -30296,7 +30296,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>853-1121</t>
+          <t>842-3972</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -30310,7 +30310,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>859-5753</t>
+          <t>847-6269</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -30332,19 +30332,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>865-6928</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>853-1121</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
           <t>X</t>
@@ -30354,11 +30346,19 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>867-4046</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
+          <t>859-5753</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>X</t>
@@ -30368,11 +30368,19 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>886-6691</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
+          <t>865-6928</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>X</t>
@@ -30382,7 +30390,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>890-4906</t>
+          <t>867-4046</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -30396,7 +30404,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>896301-9</t>
+          <t>886-6691</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -30410,19 +30418,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>939-5385</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>890-4906</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
           <t>X</t>
@@ -30432,7 +30432,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>939-8884</t>
+          <t>896301-9</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -30446,11 +30446,19 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>945-1170</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
+          <t>939-5385</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>X</t>
@@ -30460,19 +30468,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>939-8884</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
           <t>X</t>
@@ -30482,19 +30482,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>968-3186</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>945-1170</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
           <t>X</t>
@@ -30504,11 +30496,19 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
+          <t>968-3186</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>X</t>

--- a/output/2302/Reconciliation_Ekofisk.xlsx
+++ b/output/2302/Reconciliation_Ekofisk.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E773"/>
+  <dimension ref="A1:E759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,11 +587,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>215193</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>215211</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>X</t>
@@ -599,14 +607,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>215211</t>
+          <t>215213</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -633,7 +641,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>215213</t>
+          <t>215215</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -660,7 +668,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>215215</t>
+          <t>215222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -687,7 +695,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>215222</t>
+          <t>215385</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -714,7 +722,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>215385</t>
+          <t>215386</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -741,7 +749,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>215386</t>
+          <t>215387</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -768,7 +776,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>215387</t>
+          <t>215388</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -795,7 +803,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>215388</t>
+          <t>215389</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -822,7 +830,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>215389</t>
+          <t>215435</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -849,7 +857,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>215435</t>
+          <t>215436</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -876,7 +884,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>215436</t>
+          <t>215437</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -903,7 +911,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>215437</t>
+          <t>215444</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -930,7 +938,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>215444</t>
+          <t>215449</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -957,7 +965,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>215449</t>
+          <t>215452</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -984,7 +992,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>215452</t>
+          <t>215455</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1011,7 +1019,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>215455</t>
+          <t>215457</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1038,7 +1046,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>215457</t>
+          <t>215459</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1065,7 +1073,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>215459</t>
+          <t>215463</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1092,7 +1100,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>215463</t>
+          <t>215466</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1119,7 +1127,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>215466</t>
+          <t>215467</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1146,7 +1154,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>215467</t>
+          <t>215470</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1173,7 +1181,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>215470</t>
+          <t>215471</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1200,7 +1208,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>215471</t>
+          <t>215477</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1227,7 +1235,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>215477</t>
+          <t>215478</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1254,7 +1262,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>215478</t>
+          <t>215480</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1281,7 +1289,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>215480</t>
+          <t>215481</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1308,7 +1316,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>215481</t>
+          <t>215482</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1335,7 +1343,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>215482</t>
+          <t>215490</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1362,7 +1370,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>215490</t>
+          <t>215494</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1389,11 +1397,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>215491</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+          <t>215500</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>X</t>
@@ -1401,18 +1417,26 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>215492</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>215503</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>X</t>
@@ -1420,14 +1444,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>215494</t>
+          <t>215508</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1454,7 +1478,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>215500</t>
+          <t>215510</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1481,7 +1505,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>215503</t>
+          <t>215512</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1508,7 +1532,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>215508</t>
+          <t>215514</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1535,7 +1559,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>215510</t>
+          <t>215521</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1562,7 +1586,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>215512</t>
+          <t>215524</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1589,7 +1613,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>215514</t>
+          <t>215526</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1616,7 +1640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>215521</t>
+          <t>215531</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1643,7 +1667,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>215524</t>
+          <t>215533</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1670,7 +1694,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>215526</t>
+          <t>215534</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1697,7 +1721,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>215531</t>
+          <t>215544</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1724,7 +1748,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>215533</t>
+          <t>215551</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1751,7 +1775,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>215534</t>
+          <t>215553</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1778,7 +1802,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>215544</t>
+          <t>215567</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1805,7 +1829,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>215551</t>
+          <t>215570</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1832,7 +1856,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>215553</t>
+          <t>215571</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1859,7 +1883,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>215567</t>
+          <t>215576</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1886,7 +1910,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>215570</t>
+          <t>215577</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1913,7 +1937,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>215571</t>
+          <t>215582</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1940,7 +1964,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>215576</t>
+          <t>215584</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1967,7 +1991,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>215577</t>
+          <t>215585</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1994,7 +2018,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>215582</t>
+          <t>215586</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2021,7 +2045,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>215584</t>
+          <t>215590</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2048,7 +2072,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>215585</t>
+          <t>215595</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2075,7 +2099,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>215586</t>
+          <t>215600</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2102,7 +2126,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>215590</t>
+          <t>215602</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2129,7 +2153,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>215595</t>
+          <t>215603</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2156,7 +2180,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>215600</t>
+          <t>215604</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2183,7 +2207,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>215602</t>
+          <t>215611</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2210,7 +2234,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>215603</t>
+          <t>215615</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2237,7 +2261,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>215604</t>
+          <t>215617</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2264,7 +2288,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>215611</t>
+          <t>215620</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2291,7 +2315,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>215615</t>
+          <t>215622</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2318,7 +2342,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>215617</t>
+          <t>215625</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2345,7 +2369,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>215620</t>
+          <t>215627</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2372,7 +2396,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>215622</t>
+          <t>215628</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2399,7 +2423,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>215625</t>
+          <t>215629</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2426,7 +2450,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>215627</t>
+          <t>215632</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2453,7 +2477,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>215628</t>
+          <t>215635</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2480,7 +2504,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>215629</t>
+          <t>215638</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2507,7 +2531,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>215632</t>
+          <t>215639</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2534,7 +2558,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>215635</t>
+          <t>215640</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2561,7 +2585,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>215638</t>
+          <t>215641</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2588,7 +2612,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>215639</t>
+          <t>215644</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2615,7 +2639,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>215640</t>
+          <t>215654</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2642,7 +2666,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>215641</t>
+          <t>215656</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2669,7 +2693,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>215644</t>
+          <t>215658</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2696,7 +2720,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>215654</t>
+          <t>215659</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2723,7 +2747,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>215656</t>
+          <t>215660</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2750,7 +2774,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>215658</t>
+          <t>215666</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2777,7 +2801,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>215659</t>
+          <t>215668</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2804,7 +2828,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>215660</t>
+          <t>215669</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2831,11 +2855,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>215664</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+          <t>215677</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>X</t>
@@ -2843,14 +2875,14 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>215666</t>
+          <t>215682</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2877,7 +2909,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>215668</t>
+          <t>215688</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2904,7 +2936,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>215669</t>
+          <t>215689</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2931,7 +2963,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>215677</t>
+          <t>215690</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2958,7 +2990,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>215682</t>
+          <t>215692</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2985,7 +3017,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>215688</t>
+          <t>215693</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3012,7 +3044,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>215689</t>
+          <t>215694</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3039,7 +3071,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>215690</t>
+          <t>215696</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3066,7 +3098,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>215692</t>
+          <t>215700</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3093,7 +3125,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>215693</t>
+          <t>215701</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3120,7 +3152,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>215694</t>
+          <t>215702</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3147,7 +3179,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>215696</t>
+          <t>215704</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3174,7 +3206,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>215700</t>
+          <t>215705</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3201,7 +3233,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>215701</t>
+          <t>215707</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3228,7 +3260,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>215702</t>
+          <t>215709</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3255,7 +3287,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>215704</t>
+          <t>215712</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3282,7 +3314,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>215705</t>
+          <t>215720</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3309,7 +3341,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>215707</t>
+          <t>215721</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3336,7 +3368,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>215709</t>
+          <t>215723</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3363,7 +3395,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>215712</t>
+          <t>215725</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3390,7 +3422,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>215720</t>
+          <t>215733</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3417,7 +3449,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>215721</t>
+          <t>215738</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3444,7 +3476,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>215723</t>
+          <t>215740</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3471,7 +3503,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>215725</t>
+          <t>215746</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3498,7 +3530,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>215733</t>
+          <t>215749</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3525,7 +3557,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>215738</t>
+          <t>215757</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3552,7 +3584,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>215740</t>
+          <t>215758</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3579,7 +3611,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>215746</t>
+          <t>215760</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3606,7 +3638,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>215749</t>
+          <t>215762</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3633,7 +3665,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>215757</t>
+          <t>215763</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3660,7 +3692,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>215758</t>
+          <t>215765</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3687,7 +3719,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>215760</t>
+          <t>215770</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3714,11 +3746,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>215761</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
+          <t>215775</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>X</t>
@@ -3726,14 +3766,14 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>215762</t>
+          <t>215776</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3760,7 +3800,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>215763</t>
+          <t>215781</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3787,7 +3827,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>215765</t>
+          <t>215783</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3814,7 +3854,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>215770</t>
+          <t>215792</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3841,7 +3881,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>215775</t>
+          <t>215795</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3868,7 +3908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>215776</t>
+          <t>215797</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3895,7 +3935,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>215781</t>
+          <t>215801</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3922,7 +3962,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>215783</t>
+          <t>215802</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3949,7 +3989,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>215792</t>
+          <t>215807</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3976,7 +4016,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>215795</t>
+          <t>215808</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4003,7 +4043,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>215797</t>
+          <t>215819</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4030,7 +4070,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>215801</t>
+          <t>215820</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4057,7 +4097,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>215802</t>
+          <t>215845</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4084,7 +4124,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>215807</t>
+          <t>215849</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4111,7 +4151,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>215808</t>
+          <t>215850</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4138,7 +4178,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>215819</t>
+          <t>215852</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4165,7 +4205,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>215820</t>
+          <t>215857</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4192,7 +4232,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>215845</t>
+          <t>215858</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4219,7 +4259,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>215849</t>
+          <t>215861</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4246,7 +4286,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>215850</t>
+          <t>215864</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4273,7 +4313,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>215852</t>
+          <t>215866</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4300,7 +4340,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>215857</t>
+          <t>215873</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4327,7 +4367,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>215858</t>
+          <t>215874</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4354,7 +4394,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>215861</t>
+          <t>215875</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4381,7 +4421,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>215864</t>
+          <t>215879</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4408,7 +4448,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>215866</t>
+          <t>215880</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4435,7 +4475,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>215873</t>
+          <t>215883</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4462,7 +4502,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>215874</t>
+          <t>215893</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4489,7 +4529,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>215875</t>
+          <t>215896</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4516,7 +4556,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>215879</t>
+          <t>215899</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4543,7 +4583,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>215880</t>
+          <t>215901</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4570,7 +4610,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>215883</t>
+          <t>215909</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4597,7 +4637,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>215893</t>
+          <t>215915</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4624,7 +4664,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>215896</t>
+          <t>215919</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4651,7 +4691,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>215899</t>
+          <t>215920</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4678,7 +4718,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>215901</t>
+          <t>215922</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4705,7 +4745,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>215909</t>
+          <t>215924</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4732,7 +4772,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>215915</t>
+          <t>215925</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4759,7 +4799,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>215919</t>
+          <t>215934</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4786,7 +4826,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>215920</t>
+          <t>215935</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4813,7 +4853,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>215922</t>
+          <t>215940</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4840,7 +4880,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>215924</t>
+          <t>215947</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4867,7 +4907,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>215925</t>
+          <t>215949</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4894,7 +4934,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>215934</t>
+          <t>215952</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4921,7 +4961,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>215935</t>
+          <t>215953</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4948,7 +4988,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>215940</t>
+          <t>215957</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4975,7 +5015,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>215947</t>
+          <t>215959</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5002,7 +5042,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>215949</t>
+          <t>215961</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5029,7 +5069,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>215952</t>
+          <t>215964</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5056,7 +5096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>215953</t>
+          <t>215969</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5083,7 +5123,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>215957</t>
+          <t>215971</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5110,7 +5150,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>215959</t>
+          <t>215975</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5137,7 +5177,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>215961</t>
+          <t>215977</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5164,7 +5204,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>215964</t>
+          <t>215981</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5191,7 +5231,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>215969</t>
+          <t>215983</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5218,7 +5258,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>215971</t>
+          <t>215990</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5245,7 +5285,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>215975</t>
+          <t>215991</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5272,7 +5312,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>215977</t>
+          <t>215995</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5299,7 +5339,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>215981</t>
+          <t>215996</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5326,7 +5366,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>215983</t>
+          <t>215999</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5353,7 +5393,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>215990</t>
+          <t>216000</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5380,7 +5420,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>215991</t>
+          <t>216007</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5407,7 +5447,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>215995</t>
+          <t>216008</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5434,7 +5474,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>215996</t>
+          <t>216010</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5461,7 +5501,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>215999</t>
+          <t>216011</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5488,7 +5528,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>216000</t>
+          <t>216014</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5515,7 +5555,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>216007</t>
+          <t>216015</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5542,7 +5582,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>216008</t>
+          <t>216016</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5569,7 +5609,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>216010</t>
+          <t>216018</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5596,7 +5636,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>216011</t>
+          <t>216026</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5623,7 +5663,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>216014</t>
+          <t>216027</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5650,7 +5690,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>216015</t>
+          <t>216030</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5677,7 +5717,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>216016</t>
+          <t>216032</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5704,7 +5744,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>216018</t>
+          <t>216033</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -5731,7 +5771,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>216026</t>
+          <t>216035</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5758,7 +5798,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>216027</t>
+          <t>216036</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5785,7 +5825,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>216030</t>
+          <t>216044</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5812,7 +5852,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>216032</t>
+          <t>216045</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5839,7 +5879,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>216033</t>
+          <t>216046</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5866,7 +5906,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>216035</t>
+          <t>216047</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5893,7 +5933,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>216036</t>
+          <t>216048</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5920,7 +5960,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>216044</t>
+          <t>216049</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5947,7 +5987,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>216045</t>
+          <t>216052</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5974,7 +6014,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>216046</t>
+          <t>216053</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -6001,7 +6041,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>216047</t>
+          <t>216054</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -6028,7 +6068,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>216048</t>
+          <t>216074</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -6055,7 +6095,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>216049</t>
+          <t>216075</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -6082,7 +6122,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>216052</t>
+          <t>216076</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -6109,7 +6149,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>216053</t>
+          <t>216077</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -6136,7 +6176,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>216054</t>
+          <t>216086</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -6163,7 +6203,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>216074</t>
+          <t>216087</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -6190,7 +6230,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>216075</t>
+          <t>216090</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -6217,7 +6257,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>216076</t>
+          <t>216092</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -6244,7 +6284,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>216077</t>
+          <t>216096</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -6271,7 +6311,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>216086</t>
+          <t>216098</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -6298,7 +6338,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>216087</t>
+          <t>216101</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -6325,7 +6365,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>216090</t>
+          <t>216108</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -6333,26 +6373,18 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>JEEVES, STIBO</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>216092</t>
+          <t>216113</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -6379,7 +6411,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>216096</t>
+          <t>216114</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -6406,7 +6438,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>216098</t>
+          <t>216116</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -6433,7 +6465,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>216101</t>
+          <t>216118</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -6460,7 +6492,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>216108</t>
+          <t>216121</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -6468,18 +6500,26 @@
           <t>X</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>JEEVES, STIBO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>216113</t>
+          <t>216126</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6506,7 +6546,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>216114</t>
+          <t>216128</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6533,7 +6573,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>216116</t>
+          <t>216135</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6560,7 +6600,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>216118</t>
+          <t>216139</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6587,7 +6627,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>216121</t>
+          <t>216143</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6614,7 +6654,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>216126</t>
+          <t>216149</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -6641,7 +6681,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>216128</t>
+          <t>216152</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6668,7 +6708,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>216135</t>
+          <t>216164</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6695,7 +6735,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>216139</t>
+          <t>216167</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6722,7 +6762,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>216143</t>
+          <t>216174</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6749,7 +6789,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>216149</t>
+          <t>216177</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -6776,7 +6816,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>216152</t>
+          <t>216178</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6803,7 +6843,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>216164</t>
+          <t>216180</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -6830,7 +6870,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>216167</t>
+          <t>216192</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6857,7 +6897,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>216174</t>
+          <t>216196</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6884,7 +6924,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>216177</t>
+          <t>216201</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -6911,7 +6951,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>216178</t>
+          <t>216204</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6938,7 +6978,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>216180</t>
+          <t>216206</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6965,11 +7005,19 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>216182</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
+          <t>216208</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>X</t>
@@ -6977,14 +7025,14 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>216192</t>
+          <t>216209</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -7011,7 +7059,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>216196</t>
+          <t>216210</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -7038,7 +7086,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>216201</t>
+          <t>216212</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -7065,7 +7113,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>216204</t>
+          <t>216213</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -7092,7 +7140,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>216206</t>
+          <t>216216</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -7119,7 +7167,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>216208</t>
+          <t>216218</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -7146,7 +7194,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>216209</t>
+          <t>216220</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -7173,7 +7221,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>216210</t>
+          <t>216224</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -7200,7 +7248,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>216212</t>
+          <t>216225</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -7227,7 +7275,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>216213</t>
+          <t>216227</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -7254,7 +7302,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>216216</t>
+          <t>216233</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -7281,7 +7329,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>216218</t>
+          <t>216237</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -7308,7 +7356,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>216220</t>
+          <t>216238</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -7335,7 +7383,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>216224</t>
+          <t>216242</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -7362,7 +7410,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>216225</t>
+          <t>216243</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -7389,7 +7437,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>216227</t>
+          <t>216245</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -7416,7 +7464,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>216233</t>
+          <t>216247</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -7443,7 +7491,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>216237</t>
+          <t>216248</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -7470,7 +7518,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>216238</t>
+          <t>216249</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -7497,7 +7545,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>216242</t>
+          <t>216253</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -7524,7 +7572,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>216243</t>
+          <t>216256</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -7551,7 +7599,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>216245</t>
+          <t>216257</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -7578,7 +7626,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>216247</t>
+          <t>216266</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -7605,7 +7653,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>216248</t>
+          <t>216274</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -7632,7 +7680,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>216249</t>
+          <t>216280</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -7659,7 +7707,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>216253</t>
+          <t>216282</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -7686,7 +7734,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>216256</t>
+          <t>216283</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -7713,7 +7761,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>216257</t>
+          <t>216284</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -7740,7 +7788,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>216266</t>
+          <t>216286</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -7767,7 +7815,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>216274</t>
+          <t>216291</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -7794,7 +7842,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>216280</t>
+          <t>216292</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -7821,7 +7869,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>216282</t>
+          <t>216300</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -7848,7 +7896,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>216283</t>
+          <t>216303</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -7875,7 +7923,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>216284</t>
+          <t>216304</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -7902,7 +7950,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>216286</t>
+          <t>216435</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -7929,7 +7977,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>216291</t>
+          <t>216475</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -7956,7 +8004,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>216292</t>
+          <t>216507</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -7983,7 +8031,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>216300</t>
+          <t>216575</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -8010,7 +8058,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>216303</t>
+          <t>216576</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -8037,7 +8085,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>216304</t>
+          <t>216577</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -8064,7 +8112,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>216435</t>
+          <t>216671</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -8091,7 +8139,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>216475</t>
+          <t>216689</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -8118,7 +8166,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>216507</t>
+          <t>216786</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -8145,7 +8193,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>216575</t>
+          <t>216811</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -8172,7 +8220,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>216576</t>
+          <t>216812</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -8199,7 +8247,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>216577</t>
+          <t>216813</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -8226,7 +8274,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>216671</t>
+          <t>216814</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -8253,7 +8301,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>216689</t>
+          <t>216872</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -8280,7 +8328,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>216786</t>
+          <t>305226</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -8307,7 +8355,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>216811</t>
+          <t>412671</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -8334,7 +8382,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>216812</t>
+          <t>412684</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -8361,7 +8409,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>216813</t>
+          <t>412685</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -8388,7 +8436,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>216814</t>
+          <t>412688</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -8415,7 +8463,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>216872</t>
+          <t>412689</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -8442,7 +8490,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>305226</t>
+          <t>412691</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -8469,7 +8517,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>412671</t>
+          <t>412697</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -8496,7 +8544,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>412684</t>
+          <t>412702</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -8523,7 +8571,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>412685</t>
+          <t>412710</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -8550,7 +8598,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>412688</t>
+          <t>412711</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -8577,7 +8625,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>412689</t>
+          <t>412715</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -8604,7 +8652,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>412691</t>
+          <t>412717</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -8631,7 +8679,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>412697</t>
+          <t>412745</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -8658,7 +8706,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>412702</t>
+          <t>412753</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -8685,7 +8733,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>412710</t>
+          <t>412755</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -8712,7 +8760,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>412711</t>
+          <t>412757</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -8739,7 +8787,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>412715</t>
+          <t>412760</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -8766,7 +8814,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>412717</t>
+          <t>412761</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -8793,7 +8841,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>412745</t>
+          <t>412764</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -8820,7 +8868,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>412753</t>
+          <t>412766</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -8847,7 +8895,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>412755</t>
+          <t>412791</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -8874,7 +8922,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>412757</t>
+          <t>412810</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -8901,7 +8949,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>412760</t>
+          <t>412811</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -8928,7 +8976,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>412761</t>
+          <t>412815</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -8955,7 +9003,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>412764</t>
+          <t>412821</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -8982,7 +9030,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>412766</t>
+          <t>412822</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -9009,7 +9057,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>412791</t>
+          <t>412825</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -9036,7 +9084,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>412810</t>
+          <t>412828</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -9063,7 +9111,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>412811</t>
+          <t>412831</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -9090,7 +9138,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>412815</t>
+          <t>412832</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -9117,7 +9165,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>412821</t>
+          <t>412839</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -9144,7 +9192,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>412822</t>
+          <t>5006696</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -9171,7 +9219,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>412825</t>
+          <t>5006697</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -9198,7 +9246,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>412828</t>
+          <t>5006698</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -9225,7 +9273,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>412831</t>
+          <t>5006700</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -9252,7 +9300,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>412832</t>
+          <t>5006701</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -9279,7 +9327,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>412839</t>
+          <t>5006702</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -9306,7 +9354,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>5006696</t>
+          <t>5006704</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -9333,7 +9381,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>5006697</t>
+          <t>5006708</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -9360,7 +9408,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>5006698</t>
+          <t>5007908</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -9387,7 +9435,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>5006700</t>
+          <t>5010218</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -9414,7 +9462,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>5006701</t>
+          <t>5010222</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -9441,7 +9489,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>5006702</t>
+          <t>5010224</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -9468,7 +9516,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>5006704</t>
+          <t>5010225</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -9495,7 +9543,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>5006708</t>
+          <t>5010226</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -9522,7 +9570,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>5007908</t>
+          <t>5010227</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -9549,7 +9597,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>5010218</t>
+          <t>5010229</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -9576,11 +9624,19 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>5010221</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr"/>
-      <c r="C342" t="inlineStr"/>
+          <t>5010230</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>X</t>
@@ -9588,14 +9644,14 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>5010222</t>
+          <t>5010231</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -9622,7 +9678,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>5010224</t>
+          <t>5010232</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -9649,7 +9705,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>5010225</t>
+          <t>5010233</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -9676,7 +9732,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>5010226</t>
+          <t>5010234</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -9703,7 +9759,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>5010227</t>
+          <t>5010236</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -9730,7 +9786,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>5010229</t>
+          <t>5010237</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -9757,7 +9813,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>5010230</t>
+          <t>5010238</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -9784,7 +9840,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>5010231</t>
+          <t>5010239</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -9811,7 +9867,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>5010232</t>
+          <t>5010241</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -9838,7 +9894,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>5010233</t>
+          <t>5010242</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -9865,7 +9921,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>5010234</t>
+          <t>5010243</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -9892,7 +9948,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>5010236</t>
+          <t>5010245</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -9919,7 +9975,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>5010237</t>
+          <t>5010246</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -9946,7 +10002,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>5010238</t>
+          <t>5010247</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -9973,7 +10029,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>5010239</t>
+          <t>5010252</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -10000,7 +10056,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>5010241</t>
+          <t>5010253</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -10027,7 +10083,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>5010242</t>
+          <t>5010254</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -10054,7 +10110,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5010243</t>
+          <t>5010256</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -10081,7 +10137,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>5010245</t>
+          <t>5010258</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -10108,7 +10164,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>5010246</t>
+          <t>5010262</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -10135,7 +10191,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>5010247</t>
+          <t>5010263</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -10162,7 +10218,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>5010252</t>
+          <t>5010264</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -10189,7 +10245,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>5010253</t>
+          <t>5010265</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -10216,7 +10272,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5010254</t>
+          <t>5010266</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -10243,7 +10299,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>5010256</t>
+          <t>5010268</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -10270,7 +10326,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>5010258</t>
+          <t>5010270</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -10297,7 +10353,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>5010262</t>
+          <t>5010272</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -10324,7 +10380,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>5010263</t>
+          <t>5010273</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -10351,7 +10407,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>5010264</t>
+          <t>5010274</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -10378,7 +10434,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>5010265</t>
+          <t>5010275</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -10405,7 +10461,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>5010266</t>
+          <t>5010276</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -10432,7 +10488,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>5010268</t>
+          <t>5010278</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -10459,7 +10515,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>5010270</t>
+          <t>5010280</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -10486,7 +10542,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>5010272</t>
+          <t>5010282</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -10513,7 +10569,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>5010273</t>
+          <t>5010284</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -10540,7 +10596,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>5010274</t>
+          <t>5010286</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -10567,7 +10623,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>5010275</t>
+          <t>5010287</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -10594,7 +10650,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>5010276</t>
+          <t>5010288</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -10621,7 +10677,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>5010278</t>
+          <t>5010289</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -10648,7 +10704,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>5010280</t>
+          <t>5010290</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -10675,7 +10731,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>5010282</t>
+          <t>5010291</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -10702,7 +10758,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>5010284</t>
+          <t>5010292</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -10729,7 +10785,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>5010286</t>
+          <t>5010294</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -10756,7 +10812,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>5010287</t>
+          <t>5010296</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -10783,7 +10839,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>5010288</t>
+          <t>5010298</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -10810,7 +10866,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>5010289</t>
+          <t>5010299</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -10837,7 +10893,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>5010290</t>
+          <t>5010300</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -10864,7 +10920,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>5010291</t>
+          <t>5010301</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -10891,7 +10947,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>5010292</t>
+          <t>5010302</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -10918,7 +10974,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>5010294</t>
+          <t>5010303</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -10945,7 +11001,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>5010296</t>
+          <t>5010304</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -10972,7 +11028,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>5010298</t>
+          <t>5010306</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -10999,7 +11055,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>5010299</t>
+          <t>5010307</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -11026,7 +11082,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>5010300</t>
+          <t>5010308</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -11053,7 +11109,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>5010301</t>
+          <t>5010311</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -11080,7 +11136,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>5010302</t>
+          <t>5010312</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -11107,7 +11163,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>5010303</t>
+          <t>5010313</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -11134,7 +11190,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>5010304</t>
+          <t>5010314</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -11161,7 +11217,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>5010306</t>
+          <t>5010315</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -11188,7 +11244,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>5010307</t>
+          <t>5010316</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -11215,7 +11271,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>5010308</t>
+          <t>5010317</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -11242,7 +11298,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>5010311</t>
+          <t>5010319</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -11269,7 +11325,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>5010312</t>
+          <t>5010320</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -11296,7 +11352,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>5010313</t>
+          <t>5010321</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -11323,7 +11379,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>5010314</t>
+          <t>5010322</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -11350,7 +11406,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>5010315</t>
+          <t>5010324</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -11377,7 +11433,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>5010316</t>
+          <t>5010325</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -11404,7 +11460,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>5010317</t>
+          <t>5010326</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -11431,7 +11487,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>5010319</t>
+          <t>5010327</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -11458,7 +11514,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>5010320</t>
+          <t>5010328</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -11485,7 +11541,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>5010321</t>
+          <t>5010330</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -11512,7 +11568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>5010322</t>
+          <t>5010331</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -11539,7 +11595,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>5010324</t>
+          <t>5010332</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -11566,7 +11622,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>5010325</t>
+          <t>5010333</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -11593,7 +11649,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>5010326</t>
+          <t>5010334</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -11620,7 +11676,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>5010327</t>
+          <t>5010336</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -11647,7 +11703,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>5010328</t>
+          <t>5010338</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -11674,7 +11730,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>5010330</t>
+          <t>5010340</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -11701,7 +11757,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>5010331</t>
+          <t>5010342</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -11728,7 +11784,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>5010332</t>
+          <t>5010346</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -11755,7 +11811,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>5010333</t>
+          <t>5010347</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -11782,7 +11838,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>5010334</t>
+          <t>5010348</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -11809,7 +11865,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>5010336</t>
+          <t>5010349</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -11836,7 +11892,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>5010338</t>
+          <t>5010351</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -11863,7 +11919,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>5010340</t>
+          <t>5010352</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -11890,7 +11946,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>5010342</t>
+          <t>5010353</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -11917,11 +11973,19 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>5010344</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr"/>
-      <c r="C429" t="inlineStr"/>
+          <t>5010355</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D429" t="inlineStr">
         <is>
           <t>X</t>
@@ -11929,14 +11993,14 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>5010346</t>
+          <t>5010357</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -11963,7 +12027,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>5010347</t>
+          <t>5010358</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -11990,7 +12054,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>5010348</t>
+          <t>5010361</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -12017,7 +12081,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>5010349</t>
+          <t>5010363</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -12044,7 +12108,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>5010351</t>
+          <t>5010364</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -12071,7 +12135,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>5010352</t>
+          <t>5010365</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -12098,7 +12162,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>5010353</t>
+          <t>5010366</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -12125,7 +12189,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>5010355</t>
+          <t>5010367</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -12152,7 +12216,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>5010357</t>
+          <t>5010369</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -12179,7 +12243,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>5010358</t>
+          <t>5010370</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -12206,11 +12270,19 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>5010359</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr"/>
-      <c r="C440" t="inlineStr"/>
+          <t>5010371</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D440" t="inlineStr">
         <is>
           <t>X</t>
@@ -12218,14 +12290,14 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>5010361</t>
+          <t>5010373</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -12252,7 +12324,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>5010363</t>
+          <t>5010375</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -12279,7 +12351,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>5010364</t>
+          <t>5010377</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -12306,7 +12378,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>5010365</t>
+          <t>5010378</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -12333,7 +12405,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>5010366</t>
+          <t>5010379</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -12360,7 +12432,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>5010367</t>
+          <t>5010380</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -12387,7 +12459,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>5010369</t>
+          <t>5010381</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -12414,7 +12486,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>5010370</t>
+          <t>5010382</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -12441,7 +12513,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>5010371</t>
+          <t>5010383</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -12468,7 +12540,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>5010373</t>
+          <t>5010385</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -12495,11 +12567,19 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>5010374</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr"/>
-      <c r="C451" t="inlineStr"/>
+          <t>5010387</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D451" t="inlineStr">
         <is>
           <t>X</t>
@@ -12507,14 +12587,14 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>5010375</t>
+          <t>5014769</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -12541,7 +12621,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>5010377</t>
+          <t>5014770</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -12568,7 +12648,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>5010378</t>
+          <t>5014771</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -12595,7 +12675,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>5010379</t>
+          <t>5014773</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -12622,7 +12702,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>5010380</t>
+          <t>5014774</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -12649,7 +12729,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>5010381</t>
+          <t>5014775</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -12676,7 +12756,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>5010382</t>
+          <t>5014777</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -12703,7 +12783,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>5010383</t>
+          <t>5014778</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -12730,7 +12810,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>5010385</t>
+          <t>5014779</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -12757,7 +12837,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>5010387</t>
+          <t>5014781</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -12784,7 +12864,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>5014769</t>
+          <t>5014783</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -12811,7 +12891,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>5014770</t>
+          <t>5014784</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -12838,7 +12918,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>5014771</t>
+          <t>5014785</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -12865,7 +12945,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>5014773</t>
+          <t>5014787</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -12892,7 +12972,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>5014774</t>
+          <t>5014788</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -12919,7 +12999,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>5014775</t>
+          <t>5014789</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -12946,7 +13026,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>5014777</t>
+          <t>5014791</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -12973,7 +13053,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>5014778</t>
+          <t>5014793</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -13000,7 +13080,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>5014779</t>
+          <t>5014794</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -13027,7 +13107,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>5014781</t>
+          <t>5014795</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -13054,7 +13134,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>5014783</t>
+          <t>5014796</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -13081,7 +13161,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>5014784</t>
+          <t>5014797</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -13108,7 +13188,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>5014785</t>
+          <t>5014799</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -13135,7 +13215,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>5014787</t>
+          <t>5014800</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -13162,7 +13242,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>5014788</t>
+          <t>5014801</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -13189,7 +13269,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>5014789</t>
+          <t>5014802</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -13216,7 +13296,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>5014791</t>
+          <t>5014803</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -13243,7 +13323,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>5014793</t>
+          <t>5014804</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -13270,7 +13350,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>5014794</t>
+          <t>5014805</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -13297,7 +13377,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>5014795</t>
+          <t>5014807</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -13324,7 +13404,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>5014796</t>
+          <t>5014809</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -13351,7 +13431,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>5014797</t>
+          <t>5014811</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -13378,7 +13458,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>5014799</t>
+          <t>5014813</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -13405,7 +13485,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>5014800</t>
+          <t>5014814</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -13432,7 +13512,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>5014801</t>
+          <t>5014815</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -13459,7 +13539,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>5014802</t>
+          <t>5014816</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -13486,7 +13566,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>5014803</t>
+          <t>5014817</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -13513,7 +13593,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>5014804</t>
+          <t>5014818</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -13540,7 +13620,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>5014805</t>
+          <t>5014819</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -13567,7 +13647,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>5014807</t>
+          <t>5014820</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -13594,7 +13674,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>5014809</t>
+          <t>5014821</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -13621,7 +13701,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>5014811</t>
+          <t>5014822</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -13648,7 +13728,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>5014813</t>
+          <t>5014823</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -13675,7 +13755,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>5014814</t>
+          <t>5014824</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -13702,7 +13782,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>5014815</t>
+          <t>5014825</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -13729,7 +13809,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>5014816</t>
+          <t>5014827</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -13756,7 +13836,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>5014817</t>
+          <t>5014828</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -13783,7 +13863,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>5014818</t>
+          <t>5014829</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -13810,7 +13890,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>5014819</t>
+          <t>5014830</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -13837,7 +13917,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>5014820</t>
+          <t>5014831</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -13864,7 +13944,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>5014821</t>
+          <t>5014832</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -13891,7 +13971,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>5014822</t>
+          <t>5014833</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -13918,7 +13998,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>5014823</t>
+          <t>5014834</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -13945,7 +14025,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>5014824</t>
+          <t>5014835</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -13972,7 +14052,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>5014825</t>
+          <t>5014837</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -13999,7 +14079,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>5014827</t>
+          <t>5014839</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -14026,7 +14106,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>5014828</t>
+          <t>5014840</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -14053,7 +14133,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>5014829</t>
+          <t>5014841</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -14080,7 +14160,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>5014830</t>
+          <t>5014843</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -14107,7 +14187,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>5014831</t>
+          <t>5014845</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -14134,7 +14214,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>5014832</t>
+          <t>5014846</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -14161,7 +14241,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>5014833</t>
+          <t>5014847</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -14188,7 +14268,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>5014834</t>
+          <t>5021332</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -14215,7 +14295,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>5014835</t>
+          <t>5021333</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -14242,7 +14322,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>5014837</t>
+          <t>5021335</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -14269,7 +14349,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>5014839</t>
+          <t>5021336</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -14296,7 +14376,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>5014840</t>
+          <t>5021337</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -14323,7 +14403,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>5014841</t>
+          <t>5021339</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -14350,7 +14430,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>5014843</t>
+          <t>5021340</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -14377,7 +14457,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>5014845</t>
+          <t>5021341</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -14404,7 +14484,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>5014846</t>
+          <t>5021343</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -14431,7 +14511,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>5014847</t>
+          <t>5021345</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -14458,7 +14538,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>5021332</t>
+          <t>5021346</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -14485,7 +14565,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>5021333</t>
+          <t>5021347</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -14512,7 +14592,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>5021335</t>
+          <t>5021348</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -14539,7 +14619,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>5021336</t>
+          <t>5021349</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -14566,7 +14646,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>5021337</t>
+          <t>5021350</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -14593,7 +14673,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>5021339</t>
+          <t>5021352</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -14620,7 +14700,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>5021340</t>
+          <t>5021356</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -14647,7 +14727,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>5021341</t>
+          <t>5021357</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -14674,7 +14754,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>5021343</t>
+          <t>5021358</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -14701,7 +14781,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>5021345</t>
+          <t>5021359</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -14728,7 +14808,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>5021346</t>
+          <t>5021360</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -14755,7 +14835,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>5021347</t>
+          <t>5021362</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -14782,7 +14862,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>5021348</t>
+          <t>5021364</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -14809,7 +14889,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>5021349</t>
+          <t>5021365</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -14836,7 +14916,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>5021350</t>
+          <t>5022357</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -14863,7 +14943,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>5021352</t>
+          <t>5023911</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -14890,7 +14970,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>5021356</t>
+          <t>5023913</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -14917,7 +14997,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>5021357</t>
+          <t>5023915</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -14944,7 +15024,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>5021358</t>
+          <t>5023917</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -14971,7 +15051,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>5021359</t>
+          <t>5023925</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -14998,7 +15078,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>5021360</t>
+          <t>5023928</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -15025,7 +15105,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>5021362</t>
+          <t>5023929</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -15052,7 +15132,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>5021364</t>
+          <t>5023930</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -15079,7 +15159,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>5021365</t>
+          <t>5024533</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -15106,7 +15186,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>5022357</t>
+          <t>5024535</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -15133,7 +15213,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>5023911</t>
+          <t>5024537</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -15160,7 +15240,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>5023913</t>
+          <t>5024538</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -15187,7 +15267,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>5023915</t>
+          <t>5024539</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -15214,7 +15294,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>5023917</t>
+          <t>5024541</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -15241,7 +15321,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>5023925</t>
+          <t>5024543</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -15268,7 +15348,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>5023928</t>
+          <t>5024550</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -15295,7 +15375,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>5023929</t>
+          <t>5024553</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -15322,7 +15402,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>5023930</t>
+          <t>5024554</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -15349,7 +15429,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>5024533</t>
+          <t>5024555</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -15376,7 +15456,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>5024535</t>
+          <t>5024558</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -15403,7 +15483,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>5024537</t>
+          <t>5024560</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -15430,7 +15510,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>5024538</t>
+          <t>5024564</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -15457,7 +15537,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>5024539</t>
+          <t>5024578</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -15484,7 +15564,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>5024541</t>
+          <t>5024581</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -15511,7 +15591,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>5024543</t>
+          <t>5024584</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -15538,7 +15618,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>5024550</t>
+          <t>5024586</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -15565,7 +15645,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>5024553</t>
+          <t>5024590</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -15592,7 +15672,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>5024554</t>
+          <t>5024596</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -15619,7 +15699,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>5024555</t>
+          <t>5024598</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -15646,7 +15726,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>5024558</t>
+          <t>5024599</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -15673,7 +15753,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>5024560</t>
+          <t>5024600</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -15700,7 +15780,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>5024564</t>
+          <t>5024602</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -15727,11 +15807,19 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>5024576</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr"/>
-      <c r="C571" t="inlineStr"/>
+          <t>5024604</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D571" t="inlineStr">
         <is>
           <t>X</t>
@@ -15739,14 +15827,14 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>5024578</t>
+          <t>5024605</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -15773,7 +15861,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>5024581</t>
+          <t>5024673</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -15800,7 +15888,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>5024584</t>
+          <t>5025078</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -15827,7 +15915,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>5024586</t>
+          <t>5025259</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -15854,7 +15942,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>5024590</t>
+          <t>5025260</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -15881,7 +15969,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>5024596</t>
+          <t>5025262</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -15908,7 +15996,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>5024598</t>
+          <t>5025263</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -15935,7 +16023,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>5024599</t>
+          <t>5025264</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -15962,7 +16050,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>5024600</t>
+          <t>5025265</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -15989,7 +16077,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>5024602</t>
+          <t>5025266</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -16016,7 +16104,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>5024604</t>
+          <t>5025267</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -16043,7 +16131,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>5024605</t>
+          <t>5025268</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -16070,7 +16158,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>5024673</t>
+          <t>5025270</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -16097,7 +16185,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>5025078</t>
+          <t>5025271</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -16124,7 +16212,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>5025259</t>
+          <t>5025273</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -16151,7 +16239,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>5025260</t>
+          <t>5025274</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -16178,7 +16266,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>5025262</t>
+          <t>5025275</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -16205,7 +16293,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>5025263</t>
+          <t>5025276</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -16232,7 +16320,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>5025264</t>
+          <t>5025277</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -16259,7 +16347,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>5025265</t>
+          <t>5025278</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -16286,7 +16374,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>5025266</t>
+          <t>5025280</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -16313,7 +16401,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>5025267</t>
+          <t>5025281</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -16340,7 +16428,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>5025268</t>
+          <t>5025282</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -16367,7 +16455,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>5025270</t>
+          <t>5025284</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -16394,7 +16482,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>5025271</t>
+          <t>5025285</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -16421,7 +16509,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>5025273</t>
+          <t>5025286</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -16448,7 +16536,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>5025274</t>
+          <t>5025288</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -16475,7 +16563,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>5025275</t>
+          <t>5025290</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -16502,7 +16590,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>5025276</t>
+          <t>5025292</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -16529,7 +16617,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>5025277</t>
+          <t>5025294</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -16556,7 +16644,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>5025278</t>
+          <t>5025296</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -16583,11 +16671,19 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>5025279</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
+          <t>5025297</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D603" t="inlineStr">
         <is>
           <t>X</t>
@@ -16595,14 +16691,14 @@
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>5025280</t>
+          <t>5025298</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -16629,7 +16725,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>5025281</t>
+          <t>5025300</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -16656,7 +16752,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>5025282</t>
+          <t>5025301</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -16683,7 +16779,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>5025284</t>
+          <t>5025302</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -16710,7 +16806,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>5025285</t>
+          <t>5025304</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -16737,7 +16833,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>5025286</t>
+          <t>5025306</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -16764,7 +16860,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>5025288</t>
+          <t>5025307</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -16791,7 +16887,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>5025290</t>
+          <t>5025308</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -16818,7 +16914,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>5025292</t>
+          <t>5025313</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -16845,7 +16941,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>5025294</t>
+          <t>5025315</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -16872,7 +16968,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>5025296</t>
+          <t>5025318</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -16899,7 +16995,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>5025297</t>
+          <t>5025321</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -16926,7 +17022,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>5025298</t>
+          <t>5025323</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -16953,11 +17049,19 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>5025299</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr"/>
-      <c r="C617" t="inlineStr"/>
+          <t>5025326</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D617" t="inlineStr">
         <is>
           <t>X</t>
@@ -16965,14 +17069,14 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>5025300</t>
+          <t>5025330</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -16999,7 +17103,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>5025301</t>
+          <t>5025332</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -17026,7 +17130,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>5025302</t>
+          <t>5025334</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -17053,7 +17157,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>5025304</t>
+          <t>5025336</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -17080,7 +17184,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>5025306</t>
+          <t>5025338</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -17107,7 +17211,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>5025307</t>
+          <t>5025339</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -17134,7 +17238,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>5025308</t>
+          <t>5025340</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -17161,7 +17265,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>5025313</t>
+          <t>5025342</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -17188,7 +17292,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>5025315</t>
+          <t>5025344</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -17215,7 +17319,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>5025318</t>
+          <t>5025540</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -17242,7 +17346,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>5025321</t>
+          <t>5025542</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -17269,7 +17373,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>5025323</t>
+          <t>5025544</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -17296,7 +17400,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>5025326</t>
+          <t>5025545</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -17323,7 +17427,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>5025330</t>
+          <t>5025651</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -17350,7 +17454,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>5025332</t>
+          <t>5025652</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -17377,7 +17481,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>5025334</t>
+          <t>5025653</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -17404,7 +17508,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>5025336</t>
+          <t>5025656</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -17431,7 +17535,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>5025338</t>
+          <t>5025658</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -17458,7 +17562,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>5025339</t>
+          <t>5025660</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -17485,7 +17589,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>5025340</t>
+          <t>5025662</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -17512,7 +17616,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>5025342</t>
+          <t>5025664</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -17539,7 +17643,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>5025344</t>
+          <t>5025666</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -17566,7 +17670,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>5025540</t>
+          <t>5025824</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -17593,7 +17697,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>5025542</t>
+          <t>5025825</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -17620,7 +17724,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>5025544</t>
+          <t>5025826</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -17647,7 +17751,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>5025545</t>
+          <t>5025827</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -17674,7 +17778,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>5025651</t>
+          <t>5025828</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -17701,7 +17805,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>5025652</t>
+          <t>5025829</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -17728,7 +17832,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>5025653</t>
+          <t>5025832</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -17755,7 +17859,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>5025656</t>
+          <t>5025833</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -17782,7 +17886,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>5025658</t>
+          <t>5025834</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -17809,7 +17913,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>5025660</t>
+          <t>5025835</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -17836,7 +17940,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>5025662</t>
+          <t>5025837</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -17863,7 +17967,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>5025664</t>
+          <t>5025839</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -17890,7 +17994,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>5025666</t>
+          <t>5025841</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -17917,7 +18021,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>5025824</t>
+          <t>5025842</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -17944,7 +18048,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>5025825</t>
+          <t>5025845</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -17971,7 +18075,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>5025826</t>
+          <t>5025847</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -17998,7 +18102,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>5025827</t>
+          <t>5025849</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -18025,7 +18129,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>5025828</t>
+          <t>5025852</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -18052,7 +18156,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>5025829</t>
+          <t>5025854</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -18079,7 +18183,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>5025832</t>
+          <t>5025856</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -18106,7 +18210,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>5025833</t>
+          <t>5025857</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -18133,7 +18237,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>5025834</t>
+          <t>5025858</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -18160,7 +18264,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>5025835</t>
+          <t>5025859</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -18187,7 +18291,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>5025837</t>
+          <t>5025860</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -18214,7 +18318,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>5025839</t>
+          <t>5025864</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -18241,7 +18345,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>5025841</t>
+          <t>5025866</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -18268,7 +18372,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>5025842</t>
+          <t>5025867</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -18295,7 +18399,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>5025845</t>
+          <t>5025868</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -18322,7 +18426,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>5025847</t>
+          <t>5025869</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -18349,7 +18453,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>5025849</t>
+          <t>5025870</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -18376,7 +18480,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>5025852</t>
+          <t>5025871</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -18403,7 +18507,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>5025854</t>
+          <t>5025872</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -18430,7 +18534,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>5025856</t>
+          <t>5025873</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -18457,7 +18561,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>5025857</t>
+          <t>5025874</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -18484,7 +18588,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>5025858</t>
+          <t>5025876</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -18511,7 +18615,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>5025859</t>
+          <t>5025878</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -18538,7 +18642,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>5025860</t>
+          <t>5025880</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -18565,7 +18669,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>5025864</t>
+          <t>5025881</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -18592,7 +18696,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>5025866</t>
+          <t>5025882</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -18619,7 +18723,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>5025867</t>
+          <t>5025883</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -18646,7 +18750,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>5025868</t>
+          <t>5025884</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -18673,7 +18777,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>5025869</t>
+          <t>5025888</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -18700,7 +18804,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>5025870</t>
+          <t>5025890</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -18727,7 +18831,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>5025871</t>
+          <t>5025891</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -18754,7 +18858,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>5025872</t>
+          <t>5025892</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -18781,7 +18885,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>5025873</t>
+          <t>5025912</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -18808,7 +18912,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>5025874</t>
+          <t>5025927</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -18835,7 +18939,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>5025876</t>
+          <t>5025928</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -18862,7 +18966,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>5025878</t>
+          <t>5025930</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -18889,7 +18993,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>5025880</t>
+          <t>5025932</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -18916,7 +19020,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>5025881</t>
+          <t>5025933</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -18943,7 +19047,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>5025882</t>
+          <t>5025934</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -18970,7 +19074,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>5025883</t>
+          <t>5025936</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -18997,7 +19101,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>5025884</t>
+          <t>5025940</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -19024,7 +19128,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>5025888</t>
+          <t>5025944</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -19051,7 +19155,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>5025890</t>
+          <t>5025945</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -19078,7 +19182,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>5025891</t>
+          <t>5026564</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -19105,7 +19209,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>5025892</t>
+          <t>5026565</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -19132,7 +19236,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>5025912</t>
+          <t>5026566</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -19159,7 +19263,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>5025927</t>
+          <t>5026567</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -19186,7 +19290,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>5025928</t>
+          <t>5026569</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -19213,7 +19317,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>5025930</t>
+          <t>5026570</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -19240,7 +19344,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>5025932</t>
+          <t>5026571</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -19267,7 +19371,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>5025933</t>
+          <t>5026572</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -19294,7 +19398,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>5025934</t>
+          <t>5026573</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -19321,7 +19425,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>5025936</t>
+          <t>5026574</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -19348,7 +19452,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>5025940</t>
+          <t>5026575</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -19375,7 +19479,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>5025944</t>
+          <t>5026577</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -19402,7 +19506,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>5025945</t>
+          <t>5026579</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -19429,11 +19533,19 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>5026379</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr"/>
-      <c r="C709" t="inlineStr"/>
+          <t>5026581</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D709" t="inlineStr">
         <is>
           <t>X</t>
@@ -19441,14 +19553,14 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>CT, JEEVES</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>5026564</t>
+          <t>5026582</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -19475,7 +19587,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>5026565</t>
+          <t>5026583</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -19502,7 +19614,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>5026566</t>
+          <t>5026585</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -19529,7 +19641,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>5026567</t>
+          <t>5026586</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -19556,7 +19668,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>5026569</t>
+          <t>5026587</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -19583,7 +19695,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>5026570</t>
+          <t>5026590</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -19610,7 +19722,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>5026571</t>
+          <t>5026591</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -19637,7 +19749,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>5026572</t>
+          <t>5026592</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -19664,7 +19776,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>5026573</t>
+          <t>5026594</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -19691,7 +19803,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>5026574</t>
+          <t>5026596</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -19718,7 +19830,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>5026575</t>
+          <t>5026597</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -19745,7 +19857,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>5026577</t>
+          <t>5026598</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -19772,7 +19884,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>5026579</t>
+          <t>5026599</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -19799,7 +19911,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>5026581</t>
+          <t>5026601</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -19826,7 +19938,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>5026582</t>
+          <t>5026611</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -19853,7 +19965,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>5026583</t>
+          <t>5026613</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -19880,7 +19992,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>5026585</t>
+          <t>5026615</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -19907,7 +20019,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>5026586</t>
+          <t>5026616</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -19934,7 +20046,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>5026587</t>
+          <t>5026673</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -19961,7 +20073,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>5026590</t>
+          <t>5026715</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -19988,7 +20100,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>5026591</t>
+          <t>5026716</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -20015,7 +20127,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>5026592</t>
+          <t>5026718</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -20042,7 +20154,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>5026594</t>
+          <t>5026720</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -20069,7 +20181,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>5026596</t>
+          <t>5026721</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -20096,7 +20208,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>5026597</t>
+          <t>5026730</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -20123,7 +20235,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>5026598</t>
+          <t>5026731</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -20150,7 +20262,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>5026599</t>
+          <t>5026733</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -20177,7 +20289,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>5026601</t>
+          <t>5026736</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -20204,7 +20316,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>5026611</t>
+          <t>5026737</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -20231,7 +20343,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>5026613</t>
+          <t>5026740</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -20258,7 +20370,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>5026615</t>
+          <t>5026742</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -20285,7 +20397,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>5026616</t>
+          <t>5026745</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -20312,7 +20424,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>5026673</t>
+          <t>5026747</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -20339,7 +20451,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>5026715</t>
+          <t>5026748</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -20366,7 +20478,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>5026716</t>
+          <t>5026749</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -20393,7 +20505,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>5026718</t>
+          <t>5026751</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -20420,7 +20532,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>5026720</t>
+          <t>5026752</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -20447,7 +20559,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>5026721</t>
+          <t>5026753</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -20474,7 +20586,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>5026730</t>
+          <t>5026754</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -20501,7 +20613,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>5026731</t>
+          <t>5026755</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -20528,7 +20640,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>5026733</t>
+          <t>5026756</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -20555,7 +20667,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>5026736</t>
+          <t>5026757</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -20582,7 +20694,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>5026737</t>
+          <t>5026763</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -20609,7 +20721,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>5026740</t>
+          <t>5026764</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -20636,7 +20748,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>5026742</t>
+          <t>5026772</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -20663,7 +20775,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>5026745</t>
+          <t>5026773</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -20690,7 +20802,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>5026747</t>
+          <t>5026780</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -20717,7 +20829,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>5026748</t>
+          <t>5026782</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -20744,7 +20856,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>5026749</t>
+          <t>5026783</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -20771,395 +20883,17 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>5026751</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr"/>
       <c r="C759" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D759" t="inlineStr"/>
       <c r="E759" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>5026752</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E760" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>5026753</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E761" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>5026754</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>5026755</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>5026756</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E764" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>5026757</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>5026763</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>5026764</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>5026772</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>5026773</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>5026780</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>5026782</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>5026783</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr"/>
-      <c r="C773" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr">
         <is>
           <t>CT, , STIBO</t>
         </is>
